--- a/resources/implementation.xlsx
+++ b/resources/implementation.xlsx
@@ -1511,7 +1511,7 @@
         <v>335</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>335</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>338</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>339</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>336</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>336</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>335</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>335</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>335</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>340</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>344</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>349</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>349</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>336</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>341</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>340</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>336</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>335</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>338</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>338</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>341</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>339</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>336</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>109</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>340</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>340</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>336</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>336</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>335</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>349</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>350</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>336</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>336</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>336</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>343</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>351</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>351</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>340</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>351</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>340</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>351</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>349</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>340</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>339</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>340</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>343</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>336</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -6728,7 +6728,7 @@
         <v>352</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -6931,7 +6931,7 @@
         <v>336</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -6960,7 +6960,7 @@
         <v>336</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>337</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>349</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7105,7 +7105,7 @@
         <v>345</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>349</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>340</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>345</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>343</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>336</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -7714,7 +7714,7 @@
         <v>336</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>343</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>334</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>335</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>336</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>336</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>340</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>335</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -8642,7 +8642,7 @@
         <v>340</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8671,7 +8671,7 @@
         <v>335</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -8729,7 +8729,7 @@
         <v>340</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>336</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>345</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>343</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>345</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>343</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>343</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>338</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -9280,7 +9280,7 @@
         <v>340</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273">
         <v>0</v>
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>345</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>341</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>351</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -10092,7 +10092,7 @@
         <v>334</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>336</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>349</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>338</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>335</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>336</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>336</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>336</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>336</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -10977,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329">
         <v>0</v>

--- a/resources/implementation.xlsx
+++ b/resources/implementation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="349">
   <si>
     <t>Projects</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Etar-Calendar</t>
   </si>
   <si>
-    <t>ethereumj</t>
-  </si>
-  <si>
     <t>docker-maven-plugin</t>
   </si>
   <si>
@@ -694,12 +691,6 @@
     <t>openapi-generator</t>
   </si>
   <si>
-    <t>openhab1-addons</t>
-  </si>
-  <si>
-    <t>openhab2-addons</t>
-  </si>
-  <si>
     <t>Chronicle-Queue</t>
   </si>
   <si>
@@ -829,9 +820,6 @@
     <t>Signal-Android</t>
   </si>
   <si>
-    <t>Silence</t>
-  </si>
-  <si>
     <t>android-maven-plugin</t>
   </si>
   <si>
@@ -868,9 +856,6 @@
     <t>helios</t>
   </si>
   <si>
-    <t>docker-client</t>
-  </si>
-  <si>
     <t>spring-cloud-netflix</t>
   </si>
   <si>
@@ -961,9 +946,6 @@
     <t>validator</t>
   </si>
   <si>
-    <t>riot-android</t>
-  </si>
-  <si>
     <t>modeldb</t>
   </si>
   <si>
@@ -1007,9 +989,6 @@
   </si>
   <si>
     <t>SmartTubeNext</t>
-  </si>
-  <si>
-    <t>zalenium</t>
   </si>
   <si>
     <t>zaproxy</t>
@@ -1439,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I330"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1508,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1537,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1566,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1595,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1624,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1653,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1682,7 +1661,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1711,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1740,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1769,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1798,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1827,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1856,7 +1835,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1885,7 +1864,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1914,7 +1893,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1943,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1972,7 +1951,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2001,7 +1980,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2030,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2059,7 +2038,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2088,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2117,7 +2096,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2146,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2175,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2204,7 +2183,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2233,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2262,7 +2241,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2291,7 +2270,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2320,7 +2299,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2349,7 +2328,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2378,7 +2357,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2407,7 +2386,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2436,7 +2415,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2465,7 +2444,7 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2494,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2523,7 +2502,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2552,7 +2531,7 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2581,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2610,7 +2589,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2639,7 +2618,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2668,7 +2647,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2697,7 +2676,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2726,7 +2705,7 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2755,7 +2734,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2784,7 +2763,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2813,7 +2792,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2842,7 +2821,7 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2871,7 +2850,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2900,7 +2879,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2929,7 +2908,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2958,7 +2937,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2987,7 +2966,7 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3016,7 +2995,7 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3045,7 +3024,7 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3074,7 +3053,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3103,7 +3082,7 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3132,7 +3111,7 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3161,7 +3140,7 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3190,7 +3169,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3219,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3248,7 +3227,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3277,7 +3256,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3306,7 +3285,7 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3335,7 +3314,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3364,7 +3343,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3393,7 +3372,7 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3422,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3451,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3480,7 +3459,7 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3509,7 +3488,7 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3538,7 +3517,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3567,7 +3546,7 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3596,7 +3575,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3625,7 +3604,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3654,7 +3633,7 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3683,7 +3662,7 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3712,7 +3691,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3741,7 +3720,7 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3799,7 +3778,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3828,7 +3807,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3857,7 +3836,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3886,7 +3865,7 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3915,7 +3894,7 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3944,7 +3923,7 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3973,7 +3952,7 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4002,7 +3981,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4031,7 +4010,7 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4060,7 +4039,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4089,7 +4068,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4118,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4147,7 +4126,7 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4176,7 +4155,7 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4205,7 +4184,7 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4234,7 +4213,7 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4263,7 +4242,7 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4292,7 +4271,7 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4321,7 +4300,7 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4350,7 +4329,7 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4378,6 +4357,9 @@
       <c r="A102" t="s">
         <v>109</v>
       </c>
+      <c r="B102" t="s">
+        <v>343</v>
+      </c>
       <c r="C102">
         <v>0</v>
       </c>
@@ -4394,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4405,10 +4387,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4434,10 +4416,10 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4463,7 +4445,7 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4492,7 +4474,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4521,10 +4503,10 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4533,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4550,10 +4532,10 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4562,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4579,25 +4561,25 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4608,25 +4590,25 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4637,7 +4619,7 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4666,7 +4648,7 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4695,10 +4677,10 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4724,10 +4706,10 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -4753,7 +4735,7 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4782,7 +4764,7 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4811,10 +4793,10 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4823,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4849,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4869,7 +4851,7 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4878,16 +4860,16 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4898,10 +4880,10 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -4927,7 +4909,7 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4936,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4956,16 +4938,16 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4974,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4988,7 +4970,7 @@
         <v>342</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4997,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5014,10 +4996,10 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5026,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5043,7 +5025,7 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5052,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5061,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5072,7 +5054,7 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5081,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5090,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5101,7 +5083,7 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5119,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5130,10 +5112,10 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5142,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5159,10 +5141,10 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5177,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5188,10 +5170,10 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -5200,13 +5182,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5217,7 +5199,7 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5235,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5246,10 +5228,10 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5275,10 +5257,10 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -5293,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5304,7 +5286,7 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5333,25 +5315,25 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5362,25 +5344,25 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5391,10 +5373,10 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5409,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -5420,10 +5402,10 @@
         <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5449,7 +5431,7 @@
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5467,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5478,10 +5460,10 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -5507,7 +5489,7 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5519,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5536,10 +5518,10 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5548,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -5565,7 +5547,7 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5594,10 +5576,10 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5623,10 +5605,10 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -5652,10 +5634,10 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -5681,10 +5663,10 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -5710,16 +5692,16 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5739,7 +5721,7 @@
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -5748,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -5768,7 +5750,7 @@
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -5797,10 +5779,10 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -5815,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5826,7 +5808,7 @@
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5844,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5855,7 +5837,7 @@
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5884,7 +5866,7 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5913,28 +5895,28 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5942,28 +5924,28 @@
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5971,10 +5953,10 @@
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6000,7 +5982,7 @@
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -6029,10 +6011,10 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6058,7 +6040,7 @@
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6087,10 +6069,10 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6105,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -6116,10 +6098,10 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -6134,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -6145,28 +6127,28 @@
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6174,28 +6156,28 @@
         <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6203,10 +6185,10 @@
         <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -6215,13 +6197,13 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -6232,7 +6214,7 @@
         <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -6244,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -6264,7 +6246,7 @@
         <v>336</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6279,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6290,10 +6272,10 @@
         <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -6302,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -6319,10 +6301,10 @@
         <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6331,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -6348,7 +6330,7 @@
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -6360,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -6377,7 +6359,7 @@
         <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -6389,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -6406,7 +6388,7 @@
         <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6424,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6435,7 +6417,7 @@
         <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6453,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -6464,7 +6446,7 @@
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6493,7 +6475,7 @@
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6505,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -6522,7 +6504,7 @@
         <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6534,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -6551,7 +6533,7 @@
         <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6580,7 +6562,7 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6609,7 +6591,7 @@
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6638,10 +6620,10 @@
         <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -6656,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -6667,7 +6649,7 @@
         <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -6676,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -6688,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6696,28 +6678,28 @@
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6725,10 +6707,10 @@
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -6737,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -6754,7 +6736,7 @@
         <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -6775,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6783,7 +6765,7 @@
         <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6804,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6812,7 +6794,7 @@
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -6830,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -6841,7 +6823,7 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -6853,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -6870,7 +6852,7 @@
         <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -6899,10 +6881,10 @@
         <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -6928,7 +6910,7 @@
         <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -6957,28 +6939,28 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6986,28 +6968,28 @@
         <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7015,10 +6997,10 @@
         <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7033,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -7044,10 +7026,10 @@
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -7062,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -7073,7 +7055,7 @@
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -7102,7 +7084,7 @@
         <v>203</v>
       </c>
       <c r="B196" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -7114,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -7131,10 +7113,10 @@
         <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7160,7 +7142,7 @@
         <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -7172,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7189,10 +7171,10 @@
         <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7218,7 +7200,7 @@
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -7247,25 +7229,25 @@
         <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -7276,25 +7258,25 @@
         <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -7305,7 +7287,7 @@
         <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -7334,19 +7316,19 @@
         <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7355,27 +7337,27 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B205" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7384,15 +7366,15 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -7421,10 +7403,10 @@
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7433,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7450,10 +7432,10 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -7462,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -7479,7 +7461,7 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -7508,16 +7490,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -7537,7 +7519,7 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -7546,16 +7528,16 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -7566,10 +7548,10 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -7578,13 +7560,13 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -7595,10 +7577,10 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7624,7 +7606,7 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -7633,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -7642,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -7653,7 +7635,7 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -7665,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -7679,28 +7661,28 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="B216" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -7708,13 +7690,13 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -7740,10 +7722,10 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -7769,25 +7751,25 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -7798,25 +7780,25 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -7827,7 +7809,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -7839,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -7856,7 +7838,7 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -7874,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -7885,10 +7867,10 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -7903,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -7914,10 +7896,10 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -7926,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -7943,10 +7925,10 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -7961,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -7972,13 +7954,13 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -7990,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -8001,7 +7983,7 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -8013,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -8030,10 +8012,10 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8048,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8059,19 +8041,19 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -8088,10 +8070,10 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8117,10 +8099,10 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8135,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -8146,10 +8128,10 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8158,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -8175,7 +8157,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -8204,10 +8186,10 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8230,13 +8212,13 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="B235" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8245,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8259,10 +8241,10 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -8288,10 +8270,10 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -8300,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -8309,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -8317,10 +8299,10 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -8332,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -8349,7 +8331,7 @@
         <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -8378,7 +8360,7 @@
         <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -8396,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -8407,10 +8389,10 @@
         <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8436,7 +8418,7 @@
         <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -8465,7 +8447,7 @@
         <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -8474,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -8494,10 +8476,10 @@
         <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8512,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -8523,10 +8505,10 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8535,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -8552,10 +8534,10 @@
         <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8581,10 +8563,10 @@
         <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8610,7 +8592,7 @@
         <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -8622,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -8639,7 +8621,7 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -8668,7 +8650,7 @@
         <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -8686,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -8697,10 +8679,10 @@
         <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8726,7 +8708,7 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -8755,7 +8737,7 @@
         <v>257</v>
       </c>
       <c r="B253" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -8773,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -8784,7 +8766,7 @@
         <v>258</v>
       </c>
       <c r="B254" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -8802,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -8813,25 +8795,25 @@
         <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -8842,7 +8824,7 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -8860,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -8871,7 +8853,7 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -8889,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -8900,25 +8882,25 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -8929,10 +8911,10 @@
         <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8947,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -8958,10 +8940,10 @@
         <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8987,7 +8969,7 @@
         <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -9016,7 +8998,7 @@
         <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -9042,13 +9024,13 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="B263" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9071,10 +9053,10 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -9100,10 +9082,10 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -9121,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -9129,10 +9111,10 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -9161,7 +9143,7 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -9190,10 +9172,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9208,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9219,7 +9201,7 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -9231,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -9248,10 +9230,10 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9277,7 +9259,7 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -9289,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -9309,7 +9291,7 @@
         <v>338</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9318,16 +9300,16 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9335,10 +9317,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9347,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -9364,10 +9346,10 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9393,10 +9375,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9405,13 +9387,13 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275">
         <v>0</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -9422,7 +9404,7 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -9434,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -9451,10 +9433,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9480,10 +9462,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -9509,10 +9491,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9527,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -9538,7 +9520,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -9547,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -9556,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -9567,10 +9549,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9596,10 +9578,10 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9625,10 +9607,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9654,13 +9636,13 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9672,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -9683,16 +9665,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -9712,10 +9694,10 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9741,7 +9723,7 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -9770,7 +9752,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -9799,13 +9781,13 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C289">
         <v>0</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -9817,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -9828,10 +9810,10 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9857,10 +9839,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9869,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -9886,10 +9868,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9898,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G292">
         <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -9915,10 +9897,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9927,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293">
         <v>0</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -9944,7 +9926,7 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -9953,16 +9935,16 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294">
         <v>0</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -9973,7 +9955,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -10002,10 +9984,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10014,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -10031,7 +10013,7 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -10043,13 +10025,13 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297">
         <v>0</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
         <v>0</v>
@@ -10060,10 +10042,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10072,13 +10054,13 @@
         <v>0</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298">
         <v>0</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298">
         <v>0</v>
@@ -10092,22 +10074,22 @@
         <v>334</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299">
         <v>0</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -10118,7 +10100,7 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -10136,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -10147,7 +10129,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -10176,10 +10158,10 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10205,7 +10187,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -10234,10 +10216,10 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10263,10 +10245,10 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10281,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -10292,10 +10274,10 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10321,10 +10303,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10333,13 +10315,13 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307">
         <v>0</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -10350,10 +10332,10 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10362,13 +10344,13 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G308">
         <v>0</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -10379,16 +10361,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -10408,7 +10390,7 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -10437,7 +10419,7 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -10466,7 +10448,7 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -10495,10 +10477,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10507,13 +10489,13 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313">
         <v>0</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313">
         <v>0</v>
@@ -10524,7 +10506,7 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -10542,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -10553,7 +10535,7 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -10565,16 +10547,16 @@
         <v>1</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315">
         <v>0</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10582,7 +10564,7 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -10611,10 +10593,10 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10640,7 +10622,7 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -10669,10 +10651,10 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10698,10 +10680,10 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10710,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="F320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -10727,28 +10709,28 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321">
         <v>0</v>
       </c>
       <c r="E321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321">
         <v>0</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -10756,7 +10738,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -10785,7 +10767,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -10806,209 +10788,6 @@
         <v>0</v>
       </c>
       <c r="I323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
-      <c r="A324" t="s">
-        <v>327</v>
-      </c>
-      <c r="B324" t="s">
-        <v>355</v>
-      </c>
-      <c r="C324">
-        <v>1</v>
-      </c>
-      <c r="D324">
-        <v>0</v>
-      </c>
-      <c r="E324">
-        <v>0</v>
-      </c>
-      <c r="F324">
-        <v>0</v>
-      </c>
-      <c r="G324">
-        <v>0</v>
-      </c>
-      <c r="H324">
-        <v>0</v>
-      </c>
-      <c r="I324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="A325" t="s">
-        <v>328</v>
-      </c>
-      <c r="B325" t="s">
-        <v>335</v>
-      </c>
-      <c r="C325">
-        <v>1</v>
-      </c>
-      <c r="D325">
-        <v>0</v>
-      </c>
-      <c r="E325">
-        <v>0</v>
-      </c>
-      <c r="F325">
-        <v>0</v>
-      </c>
-      <c r="G325">
-        <v>0</v>
-      </c>
-      <c r="H325">
-        <v>0</v>
-      </c>
-      <c r="I325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
-      <c r="A326" t="s">
-        <v>329</v>
-      </c>
-      <c r="B326" t="s">
-        <v>336</v>
-      </c>
-      <c r="C326">
-        <v>0</v>
-      </c>
-      <c r="D326">
-        <v>0</v>
-      </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326">
-        <v>0</v>
-      </c>
-      <c r="G326">
-        <v>0</v>
-      </c>
-      <c r="H326">
-        <v>0</v>
-      </c>
-      <c r="I326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
-      <c r="A327" t="s">
-        <v>330</v>
-      </c>
-      <c r="B327" t="s">
-        <v>336</v>
-      </c>
-      <c r="C327">
-        <v>0</v>
-      </c>
-      <c r="D327">
-        <v>0</v>
-      </c>
-      <c r="E327">
-        <v>0</v>
-      </c>
-      <c r="F327">
-        <v>0</v>
-      </c>
-      <c r="G327">
-        <v>0</v>
-      </c>
-      <c r="H327">
-        <v>0</v>
-      </c>
-      <c r="I327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
-      <c r="A328" t="s">
-        <v>331</v>
-      </c>
-      <c r="B328" t="s">
-        <v>340</v>
-      </c>
-      <c r="C328">
-        <v>1</v>
-      </c>
-      <c r="D328">
-        <v>0</v>
-      </c>
-      <c r="E328">
-        <v>0</v>
-      </c>
-      <c r="F328">
-        <v>0</v>
-      </c>
-      <c r="G328">
-        <v>0</v>
-      </c>
-      <c r="H328">
-        <v>0</v>
-      </c>
-      <c r="I328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
-      <c r="A329" t="s">
-        <v>332</v>
-      </c>
-      <c r="B329" t="s">
-        <v>338</v>
-      </c>
-      <c r="C329">
-        <v>1</v>
-      </c>
-      <c r="D329">
-        <v>0</v>
-      </c>
-      <c r="E329">
-        <v>0</v>
-      </c>
-      <c r="F329">
-        <v>0</v>
-      </c>
-      <c r="G329">
-        <v>0</v>
-      </c>
-      <c r="H329">
-        <v>0</v>
-      </c>
-      <c r="I329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
-      <c r="A330" t="s">
-        <v>333</v>
-      </c>
-      <c r="B330" t="s">
-        <v>340</v>
-      </c>
-      <c r="C330">
-        <v>0</v>
-      </c>
-      <c r="D330">
-        <v>0</v>
-      </c>
-      <c r="E330">
-        <v>0</v>
-      </c>
-      <c r="F330">
-        <v>0</v>
-      </c>
-      <c r="G330">
-        <v>0</v>
-      </c>
-      <c r="H330">
-        <v>0</v>
-      </c>
-      <c r="I330">
         <v>0</v>
       </c>
     </row>

--- a/resources/implementation.xlsx
+++ b/resources/implementation.xlsx
@@ -46,6 +46,21 @@
     <t>Activiti</t>
   </si>
   <si>
+    <t>skywalking</t>
+  </si>
+  <si>
+    <t>storm</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>pinpoint</t>
+  </si>
+  <si>
+    <t>wildfly</t>
+  </si>
+  <si>
     <t>airbyte</t>
   </si>
   <si>
@@ -85,9 +100,6 @@
     <t>kafka</t>
   </si>
   <si>
-    <t>skywalking</t>
-  </si>
-  <si>
     <t>hadoop</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t>zookeeper</t>
   </si>
   <si>
-    <t>storm</t>
-  </si>
-  <si>
     <t>incubator-dolphinscheduler</t>
   </si>
   <si>
@@ -313,9 +322,6 @@
     <t>ebean</t>
   </si>
   <si>
-    <t>che</t>
-  </si>
-  <si>
     <t>jetty.project</t>
   </si>
   <si>
@@ -664,9 +670,6 @@
     <t>msgpack-java</t>
   </si>
   <si>
-    <t>pinpoint</t>
-  </si>
-  <si>
     <t>ngrinder</t>
   </si>
   <si>
@@ -970,9 +973,6 @@
     <t>apps-android-wikipedia</t>
   </si>
   <si>
-    <t>wildfly</t>
-  </si>
-  <si>
     <t>Universal-G-Code-Sender</t>
   </si>
   <si>
@@ -1000,25 +1000,25 @@
     <t>automation</t>
   </si>
   <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>software development</t>
+  </si>
+  <si>
     <t>infrastructure management</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>hpc</t>
-  </si>
-  <si>
     <t>security</t>
   </si>
   <si>
     <t>machine learning</t>
-  </si>
-  <si>
-    <t>software development</t>
-  </si>
-  <si>
-    <t>monitoring</t>
   </si>
   <si>
     <t>collaboration</t>
@@ -1493,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1545,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>332</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1690,16 +1690,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>329</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1992,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2009,25 +2009,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2299,16 +2299,16 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2357,10 +2357,10 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2444,16 +2444,16 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2473,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2560,19 +2560,19 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2627,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2647,16 +2647,16 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2705,28 +2705,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2734,28 +2734,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2763,7 +2763,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2772,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2792,10 +2792,10 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2821,16 +2821,16 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2850,7 +2850,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2917,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3024,10 +3024,10 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3285,10 +3285,10 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3488,19 +3488,19 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3546,16 +3546,16 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3604,7 +3604,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3662,10 +3662,10 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3807,25 +3807,25 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3839,22 +3839,22 @@
         <v>333</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>333</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3894,16 +3894,16 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3923,25 +3923,25 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3993,13 +3993,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4010,16 +4010,16 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4271,10 +4271,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4300,10 +4300,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4387,10 +4387,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4515,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -4619,25 +4619,25 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4677,10 +4677,10 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4735,10 +4735,10 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4793,10 +4793,10 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4822,25 +4822,25 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4880,25 +4880,25 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4909,16 +4909,16 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4976,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5025,25 +5025,25 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5083,7 +5083,7 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5199,10 +5199,10 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5315,25 +5315,25 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5373,19 +5373,19 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -5489,10 +5489,10 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -5576,10 +5576,10 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -5663,7 +5663,7 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5779,10 +5779,10 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5895,28 +5895,28 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5924,7 +5924,7 @@
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -5962,19 +5962,19 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5982,10 +5982,10 @@
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6011,10 +6011,10 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6040,10 +6040,10 @@
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6069,10 +6069,10 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6136,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6156,7 +6156,7 @@
         <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6185,7 +6185,7 @@
         <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -6206,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6214,10 +6214,10 @@
         <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -6243,10 +6243,10 @@
         <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -6330,10 +6330,10 @@
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>332</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -6649,28 +6649,28 @@
         <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6678,10 +6678,10 @@
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -6707,7 +6707,7 @@
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6736,10 +6736,10 @@
         <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -6748,16 +6748,16 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6765,7 +6765,7 @@
         <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6794,7 +6794,7 @@
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -6812,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6823,7 +6823,7 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -6835,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6881,10 +6881,10 @@
         <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -6939,28 +6939,28 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6968,7 +6968,7 @@
         <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -6997,7 +6997,7 @@
         <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -7006,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7026,7 +7026,7 @@
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -7055,10 +7055,10 @@
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -7113,10 +7113,10 @@
         <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -7142,10 +7142,10 @@
         <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7171,10 +7171,10 @@
         <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7229,25 +7229,25 @@
         <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -7287,25 +7287,25 @@
         <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -7316,19 +7316,19 @@
         <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7337,15 +7337,15 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -7371,22 +7371,22 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7395,18 +7395,18 @@
         <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -7461,10 +7461,10 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -7490,16 +7490,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -7519,10 +7519,10 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -7560,13 +7560,13 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -7577,10 +7577,10 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -7661,28 +7661,28 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -7690,13 +7690,13 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="B217" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -7751,25 +7751,25 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -7780,25 +7780,25 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -7838,10 +7838,10 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -7908,13 +7908,13 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -7954,13 +7954,13 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -7983,13 +7983,13 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8041,7 +8041,7 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -8053,13 +8053,13 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8212,10 +8212,10 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8241,13 +8241,13 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B236" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -8331,10 +8331,10 @@
         <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8360,16 +8360,16 @@
         <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -8389,16 +8389,16 @@
         <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -8447,10 +8447,10 @@
         <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -8517,13 +8517,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -8592,10 +8592,10 @@
         <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -8621,10 +8621,10 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -8795,19 +8795,19 @@
         <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -8824,25 +8824,25 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -8911,10 +8911,10 @@
         <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -8940,7 +8940,7 @@
         <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -8969,10 +8969,10 @@
         <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -9024,13 +9024,13 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="B263" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="B264" t="s">
         <v>336</v>
@@ -9085,10 +9085,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9114,10 +9114,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9143,7 +9143,7 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9201,7 +9201,7 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -9213,16 +9213,16 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9230,7 +9230,7 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -9259,10 +9259,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -9375,10 +9375,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9433,10 +9433,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -9491,10 +9491,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -9549,16 +9549,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>338</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>328</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -9839,10 +9839,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -9868,7 +9868,7 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -9926,16 +9926,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -9964,16 +9964,16 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295">
         <v>0</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -10013,10 +10013,10 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10042,10 +10042,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10071,10 +10071,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -10216,7 +10216,7 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -10245,10 +10245,10 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -10303,7 +10303,7 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -10315,13 +10315,13 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307">
         <v>0</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -10332,7 +10332,7 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -10361,7 +10361,7 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -10370,16 +10370,16 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G309">
         <v>0</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -10477,10 +10477,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="F314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -10553,10 +10553,10 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10564,7 +10564,7 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -10651,7 +10651,7 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -10680,7 +10680,7 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -10738,7 +10738,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -10767,7 +10767,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C323">
         <v>0</v>

--- a/resources/implementation.xlsx
+++ b/resources/implementation.xlsx
@@ -46,933 +46,933 @@
     <t>Activiti</t>
   </si>
   <si>
+    <t>airbyte</t>
+  </si>
+  <si>
+    <t>airsonic</t>
+  </si>
+  <si>
+    <t>spring-cloud-alibaba</t>
+  </si>
+  <si>
+    <t>nacos</t>
+  </si>
+  <si>
+    <t>alluxio</t>
+  </si>
+  <si>
+    <t>VirtualXposed</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Anki-Android</t>
+  </si>
+  <si>
+    <t>AntennaPod</t>
+  </si>
+  <si>
+    <t>AnySoftKeyboard</t>
+  </si>
+  <si>
+    <t>cyclops</t>
+  </si>
+  <si>
+    <t>dubbo</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
     <t>skywalking</t>
   </si>
   <si>
+    <t>hadoop</t>
+  </si>
+  <si>
+    <t>rocketmq</t>
+  </si>
+  <si>
+    <t>shardingsphere-elasticjob</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
     <t>storm</t>
   </si>
   <si>
+    <t>incubator-dolphinscheduler</t>
+  </si>
+  <si>
+    <t>zeppelin</t>
+  </si>
+  <si>
+    <t>pulsar</t>
+  </si>
+  <si>
+    <t>tomcat</t>
+  </si>
+  <si>
+    <t>incubator-heron</t>
+  </si>
+  <si>
+    <t>jmeter</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>incubator-pinot</t>
+  </si>
+  <si>
+    <t>nutch</t>
+  </si>
+  <si>
+    <t>hudi</t>
+  </si>
+  <si>
+    <t>servicecomb-pack</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>flume</t>
+  </si>
+  <si>
+    <t>mahout</t>
+  </si>
+  <si>
+    <t>nifi</t>
+  </si>
+  <si>
+    <t>activemq</t>
+  </si>
+  <si>
+    <t>avro</t>
+  </si>
+  <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>parquet-mr</t>
+  </si>
+  <si>
+    <t>bookkeeper</t>
+  </si>
+  <si>
+    <t>ambari</t>
+  </si>
+  <si>
+    <t>tika</t>
+  </si>
+  <si>
+    <t>netbeans</t>
+  </si>
+  <si>
+    <t>httpcomponents-client</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>AsciidocFX</t>
+  </si>
+  <si>
+    <t>commafeed</t>
+  </si>
+  <si>
+    <t>simplenote-android</t>
+  </si>
+  <si>
+    <t>azkaban</t>
+  </si>
+  <si>
+    <t>mybatis-plus</t>
+  </si>
+  <si>
+    <t>bazel</t>
+  </si>
+  <si>
+    <t>bc-java</t>
+  </si>
+  <si>
+    <t>bigbluebutton</t>
+  </si>
+  <si>
+    <t>bisq</t>
+  </si>
+  <si>
+    <t>bitcoin-wallet</t>
+  </si>
+  <si>
+    <t>keepassdroid</t>
+  </si>
+  <si>
+    <t>gatk</t>
+  </si>
+  <si>
+    <t>btrace</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>BuildCraft</t>
+  </si>
+  <si>
+    <t>Bukkit</t>
+  </si>
+  <si>
+    <t>baritone</t>
+  </si>
+  <si>
+    <t>zeebe</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Android-IMSI-Catcher-Detector</t>
+  </si>
+  <si>
+    <t>cgeo</t>
+  </si>
+  <si>
+    <t>checkstyle</t>
+  </si>
+  <si>
+    <t>material-theme-jetbrains</t>
+  </si>
+  <si>
+    <t>libsvm</t>
+  </si>
+  <si>
+    <t>lucida</t>
+  </si>
+  <si>
+    <t>classgraph</t>
+  </si>
+  <si>
+    <t>uaa</t>
+  </si>
+  <si>
+    <t>spring-boot-admin</t>
+  </si>
+  <si>
+    <t>gnucash-android</t>
+  </si>
+  <si>
+    <t>Recaf</t>
+  </si>
+  <si>
+    <t>schema-registry</t>
+  </si>
+  <si>
+    <t>kafka-rest</t>
+  </si>
+  <si>
+    <t>connectbot</t>
+  </si>
+  <si>
+    <t>cryptomator</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>cucumber-jvm</t>
+  </si>
+  <si>
+    <t>dbeaver</t>
+  </si>
+  <si>
+    <t>debezium</t>
+  </si>
+  <si>
+    <t>dl4j-examples</t>
+  </si>
+  <si>
+    <t>spotless</t>
+  </si>
+  <si>
+    <t>docker-java</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>ebean</t>
+  </si>
+  <si>
     <t>che</t>
   </si>
   <si>
+    <t>jetty.project</t>
+  </si>
+  <si>
+    <t>openj9</t>
+  </si>
+  <si>
+    <t>vert.x</t>
+  </si>
+  <si>
+    <t>ehcache3</t>
+  </si>
+  <si>
+    <t>elasticsearch-hadoop</t>
+  </si>
+  <si>
+    <t>embulk</t>
+  </si>
+  <si>
+    <t>WorldEdit</t>
+  </si>
+  <si>
+    <t>eclim</t>
+  </si>
+  <si>
+    <t>Etar-Calendar</t>
+  </si>
+  <si>
+    <t>docker-maven-plugin</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>jackson-core</t>
+  </si>
+  <si>
+    <t>Omni-Notes</t>
+  </si>
+  <si>
+    <t>find-sec-bugs</t>
+  </si>
+  <si>
+    <t>search-guard</t>
+  </si>
+  <si>
+    <t>flowable-engine</t>
+  </si>
+  <si>
+    <t>flutter-intellij</t>
+  </si>
+  <si>
+    <t>flyway</t>
+  </si>
+  <si>
+    <t>open-event-organizer-android</t>
+  </si>
+  <si>
+    <t>susi_server</t>
+  </si>
+  <si>
+    <t>phimpme-android</t>
+  </si>
+  <si>
+    <t>pslab-android</t>
+  </si>
+  <si>
+    <t>Gadgetbridge</t>
+  </si>
+  <si>
+    <t>FBReaderJ</t>
+  </si>
+  <si>
+    <t>geoserver</t>
+  </si>
+  <si>
+    <t>gephi</t>
+  </si>
+  <si>
+    <t>Geyser</t>
+  </si>
+  <si>
+    <t>git-commit-id-maven-plugin</t>
+  </si>
+  <si>
+    <t>gitblit</t>
+  </si>
+  <si>
+    <t>Glowstone</t>
+  </si>
+  <si>
+    <t>guacamole-client</t>
+  </si>
+  <si>
+    <t>gocd</t>
+  </si>
+  <si>
+    <t>ExoPlayer</t>
+  </si>
+  <si>
+    <t>j2objc</t>
+  </si>
+  <si>
+    <t>error-prone</t>
+  </si>
+  <si>
+    <t>nomulus</t>
+  </si>
+  <si>
+    <t>copybara</t>
+  </si>
+  <si>
+    <t>jib</t>
+  </si>
+  <si>
+    <t>graphhopper</t>
+  </si>
+  <si>
+    <t>jsprit</t>
+  </si>
+  <si>
+    <t>gravitee-gateway</t>
+  </si>
+  <si>
+    <t>graylog2-server</t>
+  </si>
+  <si>
+    <t>markor</t>
+  </si>
+  <si>
+    <t>h2o-3</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>hawtio</t>
+  </si>
+  <si>
+    <t>pitest</t>
+  </si>
+  <si>
+    <t>materialistic</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>HMCL</t>
+  </si>
+  <si>
+    <t>i2p.i2p</t>
+  </si>
+  <si>
+    <t>Apktool</t>
+  </si>
+  <si>
+    <t>Openfire</t>
+  </si>
+  <si>
+    <t>Conversations</t>
+  </si>
+  <si>
+    <t>heritrix3</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>uhabits</t>
+  </si>
+  <si>
+    <t>cyberduck</t>
+  </si>
+  <si>
+    <t>jabref</t>
+  </si>
+  <si>
+    <t>mockserver</t>
+  </si>
+  <si>
+    <t>mapdb</t>
+  </si>
+  <si>
+    <t>javamelody</t>
+  </si>
+  <si>
+    <t>sms-backup-plus</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>blueocean-plugin</t>
+  </si>
+  <si>
+    <t>kubernetes-plugin</t>
+  </si>
+  <si>
+    <t>gitlab-plugin</t>
+  </si>
+  <si>
+    <t>DependencyCheck</t>
+  </si>
+  <si>
+    <t>smali</t>
+  </si>
+  <si>
+    <t>intellij-community</t>
+  </si>
+  <si>
+    <t>ideavim</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>jpexs-decompiler</t>
+  </si>
+  <si>
+    <t>jitsi-videobridge</t>
+  </si>
+  <si>
+    <t>jitsi</t>
+  </si>
+  <si>
+    <t>zotfile</t>
+  </si>
+  <si>
+    <t>jmonkeyengine</t>
+  </si>
+  <si>
+    <t>jmxtrans</t>
+  </si>
+  <si>
+    <t>jsonschema2pojo</t>
+  </si>
+  <si>
+    <t>JSqlParser</t>
+  </si>
+  <si>
+    <t>tablesaw</t>
+  </si>
+  <si>
+    <t>FastHub</t>
+  </si>
+  <si>
+    <t>k-9</t>
+  </si>
+  <si>
+    <t>kaa</t>
+  </si>
+  <si>
+    <t>Phonograph</t>
+  </si>
+  <si>
+    <t>phpinspectionsea</t>
+  </si>
+  <si>
+    <t>grobid</t>
+  </si>
+  <si>
+    <t>keycloak</t>
+  </si>
+  <si>
+    <t>android-oss</t>
+  </si>
+  <si>
+    <t>drools</t>
+  </si>
+  <si>
+    <t>optaplanner</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>killbill</t>
+  </si>
+  <si>
+    <t>intellij-elixir</t>
+  </si>
+  <si>
+    <t>languagetool</t>
+  </si>
+  <si>
+    <t>Lawnchair</t>
+  </si>
+  <si>
+    <t>lbry-android</t>
+  </si>
+  <si>
+    <t>liferay-portal</t>
+  </si>
+  <si>
+    <t>ambry</t>
+  </si>
+  <si>
+    <t>liquibase</t>
+  </si>
+  <si>
+    <t>LuckPerms</t>
+  </si>
+  <si>
+    <t>NetGuard</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>mapstruct</t>
+  </si>
+  <si>
+    <t>marytts</t>
+  </si>
+  <si>
+    <t>material-components-android</t>
+  </si>
+  <si>
+    <t>gpslogger</t>
+  </si>
+  <si>
+    <t>micrometer</t>
+  </si>
+  <si>
+    <t>malmo</t>
+  </si>
+  <si>
+    <t>MinecraftForge</t>
+  </si>
+  <si>
+    <t>OpenID-Connect-Java-Spring-Server</t>
+  </si>
+  <si>
+    <t>qksms</t>
+  </si>
+  <si>
+    <t>Terasology</t>
+  </si>
+  <si>
+    <t>focus-android</t>
+  </si>
+  <si>
+    <t>msgpack-java</t>
+  </si>
+  <si>
     <t>pinpoint</t>
   </si>
   <si>
+    <t>ngrinder</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>eureka</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>genie</t>
+  </si>
+  <si>
+    <t>cqengine</t>
+  </si>
+  <si>
+    <t>open-keychain</t>
+  </si>
+  <si>
+    <t>openapi-generator</t>
+  </si>
+  <si>
+    <t>Chronicle-Queue</t>
+  </si>
+  <si>
+    <t>Chronicle-Map</t>
+  </si>
+  <si>
+    <t>OpenRefine</t>
+  </si>
+  <si>
+    <t>BIMserver</t>
+  </si>
+  <si>
+    <t>OpenTripPlanner</t>
+  </si>
+  <si>
+    <t>openvidu</t>
+  </si>
+  <si>
+    <t>zipkin</t>
+  </si>
+  <si>
+    <t>opengrok</t>
+  </si>
+  <si>
+    <t>visualvm</t>
+  </si>
+  <si>
+    <t>orgzly-android</t>
+  </si>
+  <si>
+    <t>oryx</t>
+  </si>
+  <si>
+    <t>oshi</t>
+  </si>
+  <si>
+    <t>OsmAnd</t>
+  </si>
+  <si>
+    <t>Osmand</t>
+  </si>
+  <si>
+    <t>osmdroid</t>
+  </si>
+  <si>
+    <t>pac4j</t>
+  </si>
+  <si>
+    <t>pentaho-kettle</t>
+  </si>
+  <si>
+    <t>keepass2android</t>
+  </si>
+  <si>
+    <t>secor</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
+  <si>
+    <t>PocketHub</t>
+  </si>
+  <si>
+    <t>pravega</t>
+  </si>
+  <si>
+    <t>presto</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>psi-probe</t>
+  </si>
+  <si>
+    <t>storio</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>slf4j</t>
+  </si>
+  <si>
+    <t>RedReader</t>
+  </si>
+  <si>
+    <t>quran_android</t>
+  </si>
+  <si>
+    <t>Rajawali</t>
+  </si>
+  <si>
+    <t>reactor-netty</t>
+  </si>
+  <si>
+    <t>aeron</t>
+  </si>
+  <si>
+    <t>simple-binary-encoding</t>
+  </si>
+  <si>
+    <t>redisson</t>
+  </si>
+  <si>
+    <t>xabber-android</t>
+  </si>
+  <si>
+    <t>rest-assured</t>
+  </si>
+  <si>
+    <t>ripme</t>
+  </si>
+  <si>
+    <t>rstudio</t>
+  </si>
+  <si>
+    <t>runelite</t>
+  </si>
+  <si>
+    <t>ics-openvpn</t>
+  </si>
+  <si>
+    <t>scouter</t>
+  </si>
+  <si>
+    <t>Signal-Android</t>
+  </si>
+  <si>
+    <t>android-maven-plugin</t>
+  </si>
+  <si>
+    <t>jadx</t>
+  </si>
+  <si>
+    <t>gh4a</t>
+  </si>
+  <si>
+    <t>autopsy</t>
+  </si>
+  <si>
+    <t>sonarqube</t>
+  </si>
+  <si>
+    <t>nokogiri</t>
+  </si>
+  <si>
+    <t>speedment</t>
+  </si>
+  <si>
+    <t>BungeeCord</t>
+  </si>
+  <si>
+    <t>SpongeAPI</t>
+  </si>
+  <si>
+    <t>SpongeForge</t>
+  </si>
+  <si>
+    <t>spotbugs</t>
+  </si>
+  <si>
+    <t>helios</t>
+  </si>
+  <si>
+    <t>spring-cloud-netflix</t>
+  </si>
+  <si>
+    <t>spring-cloud-gateway</t>
+  </si>
+  <si>
+    <t>spring-cloud-config</t>
+  </si>
+  <si>
+    <t>spring-cloud-sleuth</t>
+  </si>
+  <si>
+    <t>okhttp</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>keywhiz</t>
+  </si>
+  <si>
+    <t>stagemonitor</t>
+  </si>
+  <si>
+    <t>strimzi-kafka-operator</t>
+  </si>
+  <si>
+    <t>swagger-core</t>
+  </si>
+  <si>
+    <t>syncany</t>
+  </si>
+  <si>
+    <t>syncthing-android</t>
+  </si>
+  <si>
+    <t>synthea</t>
+  </si>
+  <si>
+    <t>AmazeFileManager</t>
+  </si>
+  <si>
+    <t>teammates</t>
+  </si>
+  <si>
+    <t>onedev</t>
+  </si>
+  <si>
+    <t>thingsboard</t>
+  </si>
+  <si>
+    <t>thymeleaf</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>wiremock</t>
+  </si>
+  <si>
+    <t>amidst</t>
+  </si>
+  <si>
+    <t>traccar</t>
+  </si>
+  <si>
+    <t>java-tron</t>
+  </si>
+  <si>
+    <t>beakerx</t>
+  </si>
+  <si>
+    <t>afwall</t>
+  </si>
+  <si>
+    <t>undertow</t>
+  </si>
+  <si>
+    <t>LeafPic</t>
+  </si>
+  <si>
+    <t>UniversalMediaServer</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>modeldb</t>
+  </si>
+  <si>
+    <t>vespa</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>flexmark-java</t>
+  </si>
+  <si>
+    <t>epubcheck</t>
+  </si>
+  <si>
+    <t>dynmap</t>
+  </si>
+  <si>
+    <t>StreetComplete</t>
+  </si>
+  <si>
+    <t>apps-android-wikipedia</t>
+  </si>
+  <si>
     <t>wildfly</t>
   </si>
   <si>
-    <t>airbyte</t>
-  </si>
-  <si>
-    <t>airsonic</t>
-  </si>
-  <si>
-    <t>spring-cloud-alibaba</t>
-  </si>
-  <si>
-    <t>nacos</t>
-  </si>
-  <si>
-    <t>alluxio</t>
-  </si>
-  <si>
-    <t>VirtualXposed</t>
-  </si>
-  <si>
-    <t>angel</t>
-  </si>
-  <si>
-    <t>Anki-Android</t>
-  </si>
-  <si>
-    <t>AntennaPod</t>
-  </si>
-  <si>
-    <t>AnySoftKeyboard</t>
-  </si>
-  <si>
-    <t>cyclops</t>
-  </si>
-  <si>
-    <t>dubbo</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>hadoop</t>
-  </si>
-  <si>
-    <t>rocketmq</t>
-  </si>
-  <si>
-    <t>shardingsphere-elasticjob</t>
-  </si>
-  <si>
-    <t>zookeeper</t>
-  </si>
-  <si>
-    <t>incubator-dolphinscheduler</t>
-  </si>
-  <si>
-    <t>zeppelin</t>
-  </si>
-  <si>
-    <t>pulsar</t>
-  </si>
-  <si>
-    <t>tomcat</t>
-  </si>
-  <si>
-    <t>incubator-heron</t>
-  </si>
-  <si>
-    <t>jmeter</t>
-  </si>
-  <si>
-    <t>beam</t>
-  </si>
-  <si>
-    <t>incubator-pinot</t>
-  </si>
-  <si>
-    <t>nutch</t>
-  </si>
-  <si>
-    <t>hudi</t>
-  </si>
-  <si>
-    <t>servicecomb-pack</t>
-  </si>
-  <si>
-    <t>maven</t>
-  </si>
-  <si>
-    <t>flume</t>
-  </si>
-  <si>
-    <t>mahout</t>
-  </si>
-  <si>
-    <t>nifi</t>
-  </si>
-  <si>
-    <t>activemq</t>
-  </si>
-  <si>
-    <t>avro</t>
-  </si>
-  <si>
-    <t>iceberg</t>
-  </si>
-  <si>
-    <t>parquet-mr</t>
-  </si>
-  <si>
-    <t>bookkeeper</t>
-  </si>
-  <si>
-    <t>ambari</t>
-  </si>
-  <si>
-    <t>tika</t>
-  </si>
-  <si>
-    <t>netbeans</t>
-  </si>
-  <si>
-    <t>httpcomponents-client</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>AsciidocFX</t>
-  </si>
-  <si>
-    <t>commafeed</t>
-  </si>
-  <si>
-    <t>simplenote-android</t>
-  </si>
-  <si>
-    <t>azkaban</t>
-  </si>
-  <si>
-    <t>mybatis-plus</t>
-  </si>
-  <si>
-    <t>bazel</t>
-  </si>
-  <si>
-    <t>bc-java</t>
-  </si>
-  <si>
-    <t>bigbluebutton</t>
-  </si>
-  <si>
-    <t>bisq</t>
-  </si>
-  <si>
-    <t>bitcoin-wallet</t>
-  </si>
-  <si>
-    <t>keepassdroid</t>
-  </si>
-  <si>
-    <t>gatk</t>
-  </si>
-  <si>
-    <t>btrace</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>BuildCraft</t>
-  </si>
-  <si>
-    <t>Bukkit</t>
-  </si>
-  <si>
-    <t>baritone</t>
-  </si>
-  <si>
-    <t>zeebe</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Android-IMSI-Catcher-Detector</t>
-  </si>
-  <si>
-    <t>cgeo</t>
-  </si>
-  <si>
-    <t>checkstyle</t>
-  </si>
-  <si>
-    <t>material-theme-jetbrains</t>
-  </si>
-  <si>
-    <t>libsvm</t>
-  </si>
-  <si>
-    <t>lucida</t>
-  </si>
-  <si>
-    <t>classgraph</t>
-  </si>
-  <si>
-    <t>uaa</t>
-  </si>
-  <si>
-    <t>spring-boot-admin</t>
-  </si>
-  <si>
-    <t>gnucash-android</t>
-  </si>
-  <si>
-    <t>Recaf</t>
-  </si>
-  <si>
-    <t>schema-registry</t>
-  </si>
-  <si>
-    <t>kafka-rest</t>
-  </si>
-  <si>
-    <t>connectbot</t>
-  </si>
-  <si>
-    <t>cryptomator</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>apollo</t>
-  </si>
-  <si>
-    <t>cucumber-jvm</t>
-  </si>
-  <si>
-    <t>dbeaver</t>
-  </si>
-  <si>
-    <t>debezium</t>
-  </si>
-  <si>
-    <t>dl4j-examples</t>
-  </si>
-  <si>
-    <t>spotless</t>
-  </si>
-  <si>
-    <t>docker-java</t>
-  </si>
-  <si>
-    <t>soul</t>
-  </si>
-  <si>
-    <t>ebean</t>
-  </si>
-  <si>
-    <t>jetty.project</t>
-  </si>
-  <si>
-    <t>openj9</t>
-  </si>
-  <si>
-    <t>vert.x</t>
-  </si>
-  <si>
-    <t>ehcache3</t>
-  </si>
-  <si>
-    <t>elasticsearch-hadoop</t>
-  </si>
-  <si>
-    <t>embulk</t>
-  </si>
-  <si>
-    <t>WorldEdit</t>
-  </si>
-  <si>
-    <t>eclim</t>
-  </si>
-  <si>
-    <t>Etar-Calendar</t>
-  </si>
-  <si>
-    <t>docker-maven-plugin</t>
-  </si>
-  <si>
-    <t>buck</t>
-  </si>
-  <si>
-    <t>jackson-databind</t>
-  </si>
-  <si>
-    <t>jackson-core</t>
-  </si>
-  <si>
-    <t>Omni-Notes</t>
-  </si>
-  <si>
-    <t>find-sec-bugs</t>
-  </si>
-  <si>
-    <t>search-guard</t>
-  </si>
-  <si>
-    <t>flowable-engine</t>
-  </si>
-  <si>
-    <t>flutter-intellij</t>
-  </si>
-  <si>
-    <t>flyway</t>
-  </si>
-  <si>
-    <t>open-event-organizer-android</t>
-  </si>
-  <si>
-    <t>susi_server</t>
-  </si>
-  <si>
-    <t>phimpme-android</t>
-  </si>
-  <si>
-    <t>pslab-android</t>
-  </si>
-  <si>
-    <t>Gadgetbridge</t>
-  </si>
-  <si>
-    <t>FBReaderJ</t>
-  </si>
-  <si>
-    <t>geoserver</t>
-  </si>
-  <si>
-    <t>gephi</t>
-  </si>
-  <si>
-    <t>Geyser</t>
-  </si>
-  <si>
-    <t>git-commit-id-maven-plugin</t>
-  </si>
-  <si>
-    <t>gitblit</t>
-  </si>
-  <si>
-    <t>Glowstone</t>
-  </si>
-  <si>
-    <t>guacamole-client</t>
-  </si>
-  <si>
-    <t>gocd</t>
-  </si>
-  <si>
-    <t>ExoPlayer</t>
-  </si>
-  <si>
-    <t>j2objc</t>
-  </si>
-  <si>
-    <t>error-prone</t>
-  </si>
-  <si>
-    <t>nomulus</t>
-  </si>
-  <si>
-    <t>copybara</t>
-  </si>
-  <si>
-    <t>jib</t>
-  </si>
-  <si>
-    <t>graphhopper</t>
-  </si>
-  <si>
-    <t>jsprit</t>
-  </si>
-  <si>
-    <t>gravitee-gateway</t>
-  </si>
-  <si>
-    <t>graylog2-server</t>
-  </si>
-  <si>
-    <t>markor</t>
-  </si>
-  <si>
-    <t>h2o-3</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>hawtio</t>
-  </si>
-  <si>
-    <t>pitest</t>
-  </si>
-  <si>
-    <t>materialistic</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>HMCL</t>
-  </si>
-  <si>
-    <t>i2p.i2p</t>
-  </si>
-  <si>
-    <t>Apktool</t>
-  </si>
-  <si>
-    <t>Openfire</t>
-  </si>
-  <si>
-    <t>Conversations</t>
-  </si>
-  <si>
-    <t>heritrix3</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>uhabits</t>
-  </si>
-  <si>
-    <t>cyberduck</t>
-  </si>
-  <si>
-    <t>jabref</t>
-  </si>
-  <si>
-    <t>mockserver</t>
-  </si>
-  <si>
-    <t>mapdb</t>
-  </si>
-  <si>
-    <t>javamelody</t>
-  </si>
-  <si>
-    <t>sms-backup-plus</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>blueocean-plugin</t>
-  </si>
-  <si>
-    <t>kubernetes-plugin</t>
-  </si>
-  <si>
-    <t>gitlab-plugin</t>
-  </si>
-  <si>
-    <t>DependencyCheck</t>
-  </si>
-  <si>
-    <t>smali</t>
-  </si>
-  <si>
-    <t>intellij-community</t>
-  </si>
-  <si>
-    <t>ideavim</t>
-  </si>
-  <si>
-    <t>MPS</t>
-  </si>
-  <si>
-    <t>jpexs-decompiler</t>
-  </si>
-  <si>
-    <t>jitsi-videobridge</t>
-  </si>
-  <si>
-    <t>jitsi</t>
-  </si>
-  <si>
-    <t>zotfile</t>
-  </si>
-  <si>
-    <t>jmonkeyengine</t>
-  </si>
-  <si>
-    <t>jmxtrans</t>
-  </si>
-  <si>
-    <t>jsonschema2pojo</t>
-  </si>
-  <si>
-    <t>JSqlParser</t>
-  </si>
-  <si>
-    <t>tablesaw</t>
-  </si>
-  <si>
-    <t>FastHub</t>
-  </si>
-  <si>
-    <t>k-9</t>
-  </si>
-  <si>
-    <t>kaa</t>
-  </si>
-  <si>
-    <t>Phonograph</t>
-  </si>
-  <si>
-    <t>phpinspectionsea</t>
-  </si>
-  <si>
-    <t>grobid</t>
-  </si>
-  <si>
-    <t>keycloak</t>
-  </si>
-  <si>
-    <t>android-oss</t>
-  </si>
-  <si>
-    <t>drools</t>
-  </si>
-  <si>
-    <t>optaplanner</t>
-  </si>
-  <si>
-    <t>jbpm</t>
-  </si>
-  <si>
-    <t>killbill</t>
-  </si>
-  <si>
-    <t>intellij-elixir</t>
-  </si>
-  <si>
-    <t>languagetool</t>
-  </si>
-  <si>
-    <t>Lawnchair</t>
-  </si>
-  <si>
-    <t>lbry-android</t>
-  </si>
-  <si>
-    <t>liferay-portal</t>
-  </si>
-  <si>
-    <t>ambry</t>
-  </si>
-  <si>
-    <t>liquibase</t>
-  </si>
-  <si>
-    <t>LuckPerms</t>
-  </si>
-  <si>
-    <t>NetGuard</t>
-  </si>
-  <si>
-    <t>mage</t>
-  </si>
-  <si>
-    <t>mapstruct</t>
-  </si>
-  <si>
-    <t>marytts</t>
-  </si>
-  <si>
-    <t>material-components-android</t>
-  </si>
-  <si>
-    <t>gpslogger</t>
-  </si>
-  <si>
-    <t>micrometer</t>
-  </si>
-  <si>
-    <t>malmo</t>
-  </si>
-  <si>
-    <t>MinecraftForge</t>
-  </si>
-  <si>
-    <t>OpenID-Connect-Java-Spring-Server</t>
-  </si>
-  <si>
-    <t>qksms</t>
-  </si>
-  <si>
-    <t>Terasology</t>
-  </si>
-  <si>
-    <t>focus-android</t>
-  </si>
-  <si>
-    <t>msgpack-java</t>
-  </si>
-  <si>
-    <t>ngrinder</t>
-  </si>
-  <si>
-    <t>KISS</t>
-  </si>
-  <si>
-    <t>eureka</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>genie</t>
-  </si>
-  <si>
-    <t>cqengine</t>
-  </si>
-  <si>
-    <t>open-keychain</t>
-  </si>
-  <si>
-    <t>openapi-generator</t>
-  </si>
-  <si>
-    <t>Chronicle-Queue</t>
-  </si>
-  <si>
-    <t>Chronicle-Map</t>
-  </si>
-  <si>
-    <t>OpenRefine</t>
-  </si>
-  <si>
-    <t>BIMserver</t>
-  </si>
-  <si>
-    <t>OpenTripPlanner</t>
-  </si>
-  <si>
-    <t>openvidu</t>
-  </si>
-  <si>
-    <t>zipkin</t>
-  </si>
-  <si>
-    <t>opengrok</t>
-  </si>
-  <si>
-    <t>visualvm</t>
-  </si>
-  <si>
-    <t>orgzly-android</t>
-  </si>
-  <si>
-    <t>oryx</t>
-  </si>
-  <si>
-    <t>oshi</t>
-  </si>
-  <si>
-    <t>OsmAnd</t>
-  </si>
-  <si>
-    <t>Osmand</t>
-  </si>
-  <si>
-    <t>osmdroid</t>
-  </si>
-  <si>
-    <t>pac4j</t>
-  </si>
-  <si>
-    <t>pentaho-kettle</t>
-  </si>
-  <si>
-    <t>keepass2android</t>
-  </si>
-  <si>
-    <t>secor</t>
-  </si>
-  <si>
-    <t>pmd</t>
-  </si>
-  <si>
-    <t>PocketHub</t>
-  </si>
-  <si>
-    <t>pravega</t>
-  </si>
-  <si>
-    <t>presto</t>
-  </si>
-  <si>
-    <t>processing</t>
-  </si>
-  <si>
-    <t>psi-probe</t>
-  </si>
-  <si>
-    <t>storio</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>slf4j</t>
-  </si>
-  <si>
-    <t>RedReader</t>
-  </si>
-  <si>
-    <t>quran_android</t>
-  </si>
-  <si>
-    <t>Rajawali</t>
-  </si>
-  <si>
-    <t>reactor-netty</t>
-  </si>
-  <si>
-    <t>aeron</t>
-  </si>
-  <si>
-    <t>simple-binary-encoding</t>
-  </si>
-  <si>
-    <t>redisson</t>
-  </si>
-  <si>
-    <t>xabber-android</t>
-  </si>
-  <si>
-    <t>rest-assured</t>
-  </si>
-  <si>
-    <t>ripme</t>
-  </si>
-  <si>
-    <t>rstudio</t>
-  </si>
-  <si>
-    <t>runelite</t>
-  </si>
-  <si>
-    <t>ics-openvpn</t>
-  </si>
-  <si>
-    <t>scouter</t>
-  </si>
-  <si>
-    <t>Signal-Android</t>
-  </si>
-  <si>
-    <t>android-maven-plugin</t>
-  </si>
-  <si>
-    <t>jadx</t>
-  </si>
-  <si>
-    <t>gh4a</t>
-  </si>
-  <si>
-    <t>autopsy</t>
-  </si>
-  <si>
-    <t>sonarqube</t>
-  </si>
-  <si>
-    <t>nokogiri</t>
-  </si>
-  <si>
-    <t>speedment</t>
-  </si>
-  <si>
-    <t>BungeeCord</t>
-  </si>
-  <si>
-    <t>SpongeAPI</t>
-  </si>
-  <si>
-    <t>SpongeForge</t>
-  </si>
-  <si>
-    <t>spotbugs</t>
-  </si>
-  <si>
-    <t>helios</t>
-  </si>
-  <si>
-    <t>spring-cloud-netflix</t>
-  </si>
-  <si>
-    <t>spring-cloud-gateway</t>
-  </si>
-  <si>
-    <t>spring-cloud-config</t>
-  </si>
-  <si>
-    <t>spring-cloud-sleuth</t>
-  </si>
-  <si>
-    <t>okhttp</t>
-  </si>
-  <si>
-    <t>retrofit</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>keywhiz</t>
-  </si>
-  <si>
-    <t>stagemonitor</t>
-  </si>
-  <si>
-    <t>strimzi-kafka-operator</t>
-  </si>
-  <si>
-    <t>swagger-core</t>
-  </si>
-  <si>
-    <t>syncany</t>
-  </si>
-  <si>
-    <t>syncthing-android</t>
-  </si>
-  <si>
-    <t>synthea</t>
-  </si>
-  <si>
-    <t>AmazeFileManager</t>
-  </si>
-  <si>
-    <t>teammates</t>
-  </si>
-  <si>
-    <t>onedev</t>
-  </si>
-  <si>
-    <t>thingsboard</t>
-  </si>
-  <si>
-    <t>thymeleaf</t>
-  </si>
-  <si>
-    <t>Shuttle</t>
-  </si>
-  <si>
-    <t>wiremock</t>
-  </si>
-  <si>
-    <t>amidst</t>
-  </si>
-  <si>
-    <t>traccar</t>
-  </si>
-  <si>
-    <t>java-tron</t>
-  </si>
-  <si>
-    <t>beakerx</t>
-  </si>
-  <si>
-    <t>afwall</t>
-  </si>
-  <si>
-    <t>undertow</t>
-  </si>
-  <si>
-    <t>LeafPic</t>
-  </si>
-  <si>
-    <t>UniversalMediaServer</t>
-  </si>
-  <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t>modeldb</t>
-  </si>
-  <si>
-    <t>vespa</t>
-  </si>
-  <si>
-    <t>Saturn</t>
-  </si>
-  <si>
-    <t>flexmark-java</t>
-  </si>
-  <si>
-    <t>epubcheck</t>
-  </si>
-  <si>
-    <t>dynmap</t>
-  </si>
-  <si>
-    <t>StreetComplete</t>
-  </si>
-  <si>
-    <t>apps-android-wikipedia</t>
-  </si>
-  <si>
     <t>Universal-G-Code-Sender</t>
   </si>
   <si>
@@ -1000,25 +1000,25 @@
     <t>automation</t>
   </si>
   <si>
+    <t>infrastructure management</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>software development</t>
+  </si>
+  <si>
     <t>monitoring</t>
-  </si>
-  <si>
-    <t>hpc</t>
-  </si>
-  <si>
-    <t>software development</t>
-  </si>
-  <si>
-    <t>infrastructure management</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>machine learning</t>
   </si>
   <si>
     <t>collaboration</t>
@@ -1493,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1545,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>332</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1690,16 +1690,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>329</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1992,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2009,25 +2009,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2299,16 +2299,16 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2357,10 +2357,10 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2444,16 +2444,16 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2473,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2560,19 +2560,19 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2627,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2647,16 +2647,16 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2705,28 +2705,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2734,28 +2734,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2763,7 +2763,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2772,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2792,10 +2792,10 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2821,16 +2821,16 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2850,7 +2850,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2917,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3024,10 +3024,10 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3285,10 +3285,10 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3488,19 +3488,19 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3546,16 +3546,16 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3604,7 +3604,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3662,10 +3662,10 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3807,25 +3807,25 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3839,22 +3839,22 @@
         <v>333</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>333</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3894,16 +3894,16 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3923,25 +3923,25 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3993,13 +3993,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4010,16 +4010,16 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4271,10 +4271,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4300,10 +4300,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4387,10 +4387,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4515,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -4619,25 +4619,25 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4677,10 +4677,10 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4735,10 +4735,10 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4793,10 +4793,10 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4822,25 +4822,25 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4880,25 +4880,25 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4909,16 +4909,16 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4976,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5025,25 +5025,25 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5083,7 +5083,7 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5199,10 +5199,10 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5315,25 +5315,25 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5373,19 +5373,19 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -5489,10 +5489,10 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -5576,10 +5576,10 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -5663,7 +5663,7 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5779,10 +5779,10 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5895,28 +5895,28 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5924,7 +5924,7 @@
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -5962,19 +5962,19 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5982,10 +5982,10 @@
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6011,10 +6011,10 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6040,10 +6040,10 @@
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6069,10 +6069,10 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6136,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6156,7 +6156,7 @@
         <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6185,7 +6185,7 @@
         <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -6206,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6214,10 +6214,10 @@
         <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -6243,10 +6243,10 @@
         <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -6330,10 +6330,10 @@
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>332</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -6649,28 +6649,28 @@
         <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6678,10 +6678,10 @@
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -6707,7 +6707,7 @@
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6736,10 +6736,10 @@
         <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -6748,16 +6748,16 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6765,7 +6765,7 @@
         <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6794,7 +6794,7 @@
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -6812,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6823,7 +6823,7 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -6835,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6881,10 +6881,10 @@
         <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -6939,28 +6939,28 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6968,7 +6968,7 @@
         <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -6997,7 +6997,7 @@
         <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -7006,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7026,7 +7026,7 @@
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -7055,10 +7055,10 @@
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -7113,10 +7113,10 @@
         <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -7142,10 +7142,10 @@
         <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7171,10 +7171,10 @@
         <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7229,25 +7229,25 @@
         <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -7287,25 +7287,25 @@
         <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -7316,19 +7316,19 @@
         <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7337,15 +7337,15 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -7371,22 +7371,22 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7395,18 +7395,18 @@
         <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -7461,10 +7461,10 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -7490,16 +7490,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -7519,10 +7519,10 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -7560,13 +7560,13 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -7577,10 +7577,10 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -7661,28 +7661,28 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="B216" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -7690,13 +7690,13 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -7751,25 +7751,25 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -7780,25 +7780,25 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -7838,10 +7838,10 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -7908,13 +7908,13 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -7954,13 +7954,13 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -7983,13 +7983,13 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8041,7 +8041,7 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -8053,13 +8053,13 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8212,10 +8212,10 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="B235" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8241,13 +8241,13 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="B236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -8331,10 +8331,10 @@
         <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8360,16 +8360,16 @@
         <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -8389,16 +8389,16 @@
         <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -8447,10 +8447,10 @@
         <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -8517,13 +8517,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -8592,10 +8592,10 @@
         <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -8621,10 +8621,10 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -8795,19 +8795,19 @@
         <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -8824,25 +8824,25 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -8911,10 +8911,10 @@
         <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -8940,7 +8940,7 @@
         <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -8969,10 +8969,10 @@
         <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -9024,13 +9024,13 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="B263" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
         <v>336</v>
@@ -9085,10 +9085,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9114,10 +9114,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9143,7 +9143,7 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9201,7 +9201,7 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -9213,16 +9213,16 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9230,7 +9230,7 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -9259,10 +9259,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -9375,10 +9375,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9433,10 +9433,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -9491,10 +9491,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -9549,16 +9549,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>338</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>328</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -9839,10 +9839,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -9868,7 +9868,7 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -9926,16 +9926,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -9964,16 +9964,16 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295">
         <v>0</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -10013,10 +10013,10 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10042,10 +10042,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10071,10 +10071,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -10216,7 +10216,7 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -10245,10 +10245,10 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -10303,7 +10303,7 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -10315,13 +10315,13 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307">
         <v>0</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -10332,7 +10332,7 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -10361,7 +10361,7 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -10370,16 +10370,16 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G309">
         <v>0</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -10477,10 +10477,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -10553,10 +10553,10 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10564,7 +10564,7 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -10651,7 +10651,7 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -10680,7 +10680,7 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -10738,7 +10738,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -10767,7 +10767,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C323">
         <v>0</v>

--- a/resources/implementation.xlsx
+++ b/resources/implementation.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilapaiva/Documents/GitHub/db-mining/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1057,9 +1070,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1091,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1120,38 +1148,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1162,10 +1190,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1203,71 +1231,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1295,7 +1323,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1318,11 +1346,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1331,13 +1359,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1347,7 +1375,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1356,7 +1384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1365,7 +1393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1373,10 +1401,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1442,27 +1470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1607,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1636,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1694,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1723,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1752,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1810,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1868,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1897,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1926,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1955,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1984,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -2042,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -2071,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -2100,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -2158,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -2187,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2216,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -2245,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -2274,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2303,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
@@ -2332,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -2390,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -2419,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -2448,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
@@ -2477,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
@@ -2506,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
@@ -2535,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
@@ -2593,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
@@ -2622,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
@@ -2651,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
@@ -2680,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -2709,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
@@ -2738,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
@@ -2767,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -2796,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -2825,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
@@ -2854,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -2883,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>70</v>
       </c>
@@ -2912,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>71</v>
       </c>
@@ -2941,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>72</v>
       </c>
@@ -2970,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
@@ -2999,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
@@ -3028,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>76</v>
       </c>
@@ -3057,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>77</v>
       </c>
@@ -3086,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>79</v>
       </c>
@@ -3115,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>80</v>
       </c>
@@ -3144,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>81</v>
       </c>
@@ -3173,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>82</v>
       </c>
@@ -3202,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>83</v>
       </c>
@@ -3231,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>84</v>
       </c>
@@ -3260,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>86</v>
       </c>
@@ -3289,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>87</v>
       </c>
@@ -3318,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" hidden="1">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>88</v>
       </c>
@@ -3347,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" hidden="1">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>89</v>
       </c>
@@ -3376,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>90</v>
       </c>
@@ -3405,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
@@ -3434,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>92</v>
       </c>
@@ -3463,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>93</v>
       </c>
@@ -3492,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>94</v>
       </c>
@@ -3521,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>95</v>
       </c>
@@ -3550,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
@@ -3579,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" hidden="1">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>97</v>
       </c>
@@ -3608,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" hidden="1">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>98</v>
       </c>
@@ -3637,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>99</v>
       </c>
@@ -3666,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>100</v>
       </c>
@@ -3695,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>101</v>
       </c>
@@ -3724,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>102</v>
       </c>
@@ -3753,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>103</v>
       </c>
@@ -3782,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>104</v>
       </c>
@@ -3811,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>105</v>
       </c>
@@ -3840,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
@@ -3869,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>107</v>
       </c>
@@ -3898,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>108</v>
       </c>
@@ -3927,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>109</v>
       </c>
@@ -3956,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
@@ -3985,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" hidden="1">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>111</v>
       </c>
@@ -4014,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>112</v>
       </c>
@@ -4043,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" hidden="1">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>114</v>
       </c>
@@ -4072,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>115</v>
       </c>
@@ -4101,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>116</v>
       </c>
@@ -4130,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>117</v>
       </c>
@@ -4159,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>118</v>
       </c>
@@ -4188,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" hidden="1">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>119</v>
       </c>
@@ -4217,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>120</v>
       </c>
@@ -4246,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>121</v>
       </c>
@@ -4275,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>122</v>
       </c>
@@ -4304,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" hidden="1">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>123</v>
       </c>
@@ -4333,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>124</v>
       </c>
@@ -4362,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>125</v>
       </c>
@@ -4391,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>126</v>
       </c>
@@ -4420,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>127</v>
       </c>
@@ -4449,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>128</v>
       </c>
@@ -4478,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>129</v>
       </c>
@@ -4507,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>130</v>
       </c>
@@ -4536,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>131</v>
       </c>
@@ -4565,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>132</v>
       </c>
@@ -4594,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>133</v>
       </c>
@@ -4623,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
@@ -4652,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>135</v>
       </c>
@@ -4681,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" hidden="1">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>136</v>
       </c>
@@ -4710,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>137</v>
       </c>
@@ -4739,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>138</v>
       </c>
@@ -4768,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>139</v>
       </c>
@@ -4797,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>140</v>
       </c>
@@ -4826,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>141</v>
       </c>
@@ -4855,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>142</v>
       </c>
@@ -4884,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>143</v>
       </c>
@@ -4913,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>144</v>
       </c>
@@ -4942,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>145</v>
       </c>
@@ -4971,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>146</v>
       </c>
@@ -5000,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>147</v>
       </c>
@@ -5029,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>148</v>
       </c>
@@ -5058,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>149</v>
       </c>
@@ -5087,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>150</v>
       </c>
@@ -5116,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>151</v>
       </c>
@@ -5145,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>152</v>
       </c>
@@ -5174,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>153</v>
       </c>
@@ -5203,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>154</v>
       </c>
@@ -5232,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>155</v>
       </c>
@@ -5261,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>156</v>
       </c>
@@ -5290,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>157</v>
       </c>
@@ -5319,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>158</v>
       </c>
@@ -5348,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>159</v>
       </c>
@@ -5377,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>160</v>
       </c>
@@ -5406,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25" hidden="1">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>161</v>
       </c>
@@ -5435,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>162</v>
       </c>
@@ -5464,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>163</v>
       </c>
@@ -5493,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>164</v>
       </c>
@@ -5522,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>165</v>
       </c>
@@ -5551,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>166</v>
       </c>
@@ -5580,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>167</v>
       </c>
@@ -5609,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>168</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>169</v>
       </c>
@@ -5667,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>170</v>
       </c>
@@ -5696,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>171</v>
       </c>
@@ -5725,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>172</v>
       </c>
@@ -5754,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25" hidden="1">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>173</v>
       </c>
@@ -5783,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>174</v>
       </c>
@@ -5812,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>176</v>
       </c>
@@ -5841,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>177</v>
       </c>
@@ -5870,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>178</v>
       </c>
@@ -5899,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>179</v>
       </c>
@@ -5928,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25" hidden="1">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>180</v>
       </c>
@@ -5957,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>181</v>
       </c>
@@ -5986,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>182</v>
       </c>
@@ -6015,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>183</v>
       </c>
@@ -6044,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>184</v>
       </c>
@@ -6073,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>186</v>
       </c>
@@ -6131,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>187</v>
       </c>
@@ -6160,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>188</v>
       </c>
@@ -6189,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>189</v>
       </c>
@@ -6218,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>190</v>
       </c>
@@ -6247,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>191</v>
       </c>
@@ -6276,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25" hidden="1">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>192</v>
       </c>
@@ -6305,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>193</v>
       </c>
@@ -6334,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>194</v>
       </c>
@@ -6363,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
@@ -6392,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>196</v>
       </c>
@@ -6421,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25" hidden="1">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>197</v>
       </c>
@@ -6450,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>198</v>
       </c>
@@ -6479,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>199</v>
       </c>
@@ -6508,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>200</v>
       </c>
@@ -6537,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>201</v>
       </c>
@@ -6566,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>202</v>
       </c>
@@ -6595,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>203</v>
       </c>
@@ -6624,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>204</v>
       </c>
@@ -6653,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>205</v>
       </c>
@@ -6682,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>207</v>
       </c>
@@ -6711,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>209</v>
       </c>
@@ -6740,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>210</v>
       </c>
@@ -6769,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>211</v>
       </c>
@@ -6798,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>213</v>
       </c>
@@ -6827,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>214</v>
       </c>
@@ -6856,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>215</v>
       </c>
@@ -6885,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>216</v>
       </c>
@@ -6914,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>217</v>
       </c>
@@ -6943,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>218</v>
       </c>
@@ -6972,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>219</v>
       </c>
@@ -7001,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>220</v>
       </c>
@@ -7030,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>221</v>
       </c>
@@ -7059,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>222</v>
       </c>
@@ -7088,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>223</v>
       </c>
@@ -7117,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>224</v>
       </c>
@@ -7146,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>225</v>
       </c>
@@ -7175,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>226</v>
       </c>
@@ -7204,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>227</v>
       </c>
@@ -7233,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>228</v>
       </c>
@@ -7262,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>229</v>
       </c>
@@ -7291,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>230</v>
       </c>
@@ -7320,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>231</v>
       </c>
@@ -7349,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25" hidden="1">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>232</v>
       </c>
@@ -7378,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>233</v>
       </c>
@@ -7407,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>234</v>
       </c>
@@ -7436,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>235</v>
       </c>
@@ -7465,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>236</v>
       </c>
@@ -7494,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>237</v>
       </c>
@@ -7523,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>238</v>
       </c>
@@ -7552,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>239</v>
       </c>
@@ -7581,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>240</v>
       </c>
@@ -7610,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>105</v>
       </c>
@@ -7639,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>241</v>
       </c>
@@ -7668,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>242</v>
       </c>
@@ -7697,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>243</v>
       </c>
@@ -7726,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>244</v>
       </c>
@@ -7755,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>245</v>
       </c>
@@ -7784,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>246</v>
       </c>
@@ -7813,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>247</v>
       </c>
@@ -7842,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>248</v>
       </c>
@@ -7871,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>249</v>
       </c>
@@ -7900,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25" hidden="1">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>250</v>
       </c>
@@ -7929,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>251</v>
       </c>
@@ -7958,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25" hidden="1">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>252</v>
       </c>
@@ -7987,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>253</v>
       </c>
@@ -8016,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>254</v>
       </c>
@@ -8045,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>255</v>
       </c>
@@ -8074,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>256</v>
       </c>
@@ -8103,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>257</v>
       </c>
@@ -8132,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>105</v>
       </c>
@@ -8161,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -8190,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -8219,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -8248,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -8277,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -8306,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -8335,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -8364,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -8393,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -8422,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -8451,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25" hidden="1">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -8480,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -8509,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25" hidden="1">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -8538,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -8567,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -8596,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -8625,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>274</v>
       </c>
@@ -8654,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>275</v>
       </c>
@@ -8683,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25" hidden="1">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>276</v>
       </c>
@@ -8712,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>277</v>
       </c>
@@ -8741,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25" hidden="1">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>278</v>
       </c>
@@ -8770,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>279</v>
       </c>
@@ -8799,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>280</v>
       </c>
@@ -8828,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>281</v>
       </c>
@@ -8857,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>282</v>
       </c>
@@ -8886,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>283</v>
       </c>
@@ -8915,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>284</v>
       </c>
@@ -8944,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25" hidden="1">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>285</v>
       </c>
@@ -8973,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>286</v>
       </c>
@@ -9002,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>287</v>
       </c>
@@ -9031,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>288</v>
       </c>
@@ -9060,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>289</v>
       </c>
@@ -9089,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25" hidden="1">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>290</v>
       </c>
@@ -9118,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>291</v>
       </c>
@@ -9147,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25" hidden="1">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>292</v>
       </c>
@@ -9176,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>293</v>
       </c>
@@ -9205,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25" hidden="1">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>294</v>
       </c>
@@ -9234,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25" hidden="1">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>295</v>
       </c>
@@ -9263,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25" hidden="1">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>296</v>
       </c>
@@ -9292,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>297</v>
       </c>
@@ -9321,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25" hidden="1">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>298</v>
       </c>
@@ -9350,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25" hidden="1">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>299</v>
       </c>
@@ -9379,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25" hidden="1">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>300</v>
       </c>
@@ -9408,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25" hidden="1">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>301</v>
       </c>
@@ -9437,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>302</v>
       </c>
@@ -9466,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>303</v>
       </c>
@@ -9495,7 +9518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25" hidden="1">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>304</v>
       </c>
@@ -9524,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>305</v>
       </c>
@@ -9553,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25" hidden="1">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>306</v>
       </c>
@@ -9582,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25" hidden="1">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>307</v>
       </c>
@@ -9611,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25" hidden="1">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>308</v>
       </c>
@@ -9640,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25" hidden="1">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>309</v>
       </c>
@@ -9669,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25" hidden="1">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>310</v>
       </c>
@@ -9698,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25" hidden="1">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>311</v>
       </c>
@@ -9727,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>312</v>
       </c>
@@ -9756,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25" hidden="1">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>313</v>
       </c>
@@ -9785,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>314</v>
       </c>
@@ -9814,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25" hidden="1">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>315</v>
       </c>
@@ -9843,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25" hidden="1">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>316</v>
       </c>
@@ -9872,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25" hidden="1">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>317</v>
       </c>
@@ -9901,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25" hidden="1">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>318</v>
       </c>
@@ -9930,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>319</v>
       </c>
@@ -9959,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25" hidden="1">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>320</v>
       </c>
@@ -9988,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>321</v>
       </c>
@@ -10017,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>322</v>
       </c>
@@ -10046,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>323</v>
       </c>
@@ -10075,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25" hidden="1">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>324</v>
       </c>
@@ -10104,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>325</v>
       </c>
@@ -10133,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25" hidden="1">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>326</v>
       </c>
@@ -10162,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25" hidden="1">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>327</v>
       </c>
@@ -10191,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>328</v>
       </c>
@@ -10220,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25" hidden="1">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>329</v>
       </c>
@@ -10249,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>330</v>
       </c>
@@ -10278,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>331</v>
       </c>
@@ -10307,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>332</v>
       </c>
@@ -10336,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>333</v>
       </c>
@@ -10365,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25" hidden="1">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>334</v>
       </c>
@@ -10394,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>335</v>
       </c>
@@ -10423,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25" hidden="1">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>336</v>
       </c>
@@ -10452,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25" hidden="1">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>337</v>
       </c>
@@ -10481,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>338</v>
       </c>
@@ -10510,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25" hidden="1">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>339</v>
       </c>
@@ -10539,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25" hidden="1">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>341</v>
       </c>
@@ -10568,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25" hidden="1">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>342</v>
       </c>
@@ -10597,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25" hidden="1">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>343</v>
       </c>
@@ -10626,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25" hidden="1">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>344</v>
       </c>
@@ -10655,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>345</v>
       </c>
@@ -10686,5 +10709,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/resources/implementation.xlsx
+++ b/resources/implementation.xlsx
@@ -471,37 +471,37 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>('jOOQ', 'implementation')</t>
+          <t>jOOQ</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>('JDBC', 'implementation')</t>
+          <t>JDBC</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>('Spring', 'implementation')</t>
+          <t>Spring</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>('Hibernate', 'implementation')</t>
+          <t>Hibernate</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>('JPA', 'implementation')</t>
+          <t>JPA</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>('EclipseLink', 'implementation')</t>
+          <t>EclipseLink</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>('mybatis', 'implementation')</t>
+          <t>mybatis</t>
         </is>
       </c>
     </row>

--- a/resources/implementation.xlsx
+++ b/resources/implementation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N362"/>
+  <dimension ref="A1:N363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19287,7 +19287,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>liferay</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>liferay-portal</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>38220df7f113ab58af84b3297d81db6bb40d3320</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30:11+00:00</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1</v>
+      </c>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="n">
+        <v>1</v>
+      </c>
+      <c r="N363" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>